--- a/Raw_data/Stoich/Manual Calc_Total P.xlsx
+++ b/Raw_data/Stoich/Manual Calc_Total P.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Stoich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{8CF4C391-90EE-499D-8801-C47F118AA0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D66B346-8A8D-4C16-9651-1A5892278161}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{F50745A5-956B-46B0-BBAD-8785E70849EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00943F66-7F76-4A63-B36B-A2D097183E00}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A86AD899-9B24-4317-945C-DAD9099D818F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>Sample ID</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Avg_Blank_Rnd2</t>
   </si>
   <si>
-    <t>P (mg/kg)</t>
-  </si>
-  <si>
     <t>Sample_mg</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>Wed Jul 03 16:41:58 2024</t>
   </si>
   <si>
-    <t>This is what I think Numbers should be</t>
-  </si>
-  <si>
     <t xml:space="preserve">1st Round </t>
   </si>
   <si>
@@ -323,13 +317,49 @@
   </si>
   <si>
     <t>ADJ RESULT mg/L</t>
+  </si>
+  <si>
+    <t>mg/kg P</t>
+  </si>
+  <si>
+    <t>% P</t>
+  </si>
+  <si>
+    <t>% P (blank corrected)</t>
+  </si>
+  <si>
+    <t>mean blank reading</t>
+  </si>
+  <si>
+    <t>euc</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Niraj_Method_mg_kg</t>
+  </si>
+  <si>
+    <t>Result_(P_mg/L)</t>
+  </si>
+  <si>
+    <t>Sols_P (mg/kg)</t>
+  </si>
+  <si>
+    <t>Jeffs_mg/kg P (blank corrected)</t>
+  </si>
+  <si>
+    <t>% P_ Sols calc</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +374,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,19 +425,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -711,12 +760,12 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -724,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -745,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -765,7 +814,7 @@
         <v>0.22420499999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -794,7 +843,7 @@
         <v>7.1162000000000003E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -826,7 +875,7 @@
         <v>7.8550999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>3.25</v>
@@ -858,7 +907,7 @@
         <v>8.2465999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>3.25</v>
@@ -887,7 +936,7 @@
         <v>7.1151000000000006E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>3.25</v>
@@ -919,7 +968,7 @@
         <v>7.7699000000000004E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>3.25</v>
@@ -951,7 +1000,7 @@
         <v>7.6537999999999995E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>3.25</v>
@@ -983,7 +1032,7 @@
         <v>8.1786999999999999E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>3.25</v>
@@ -1015,7 +1064,7 @@
         <v>8.5081000000000004E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>3.25</v>
@@ -1047,7 +1096,7 @@
         <v>7.7268000000000003E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>3.25</v>
@@ -1079,7 +1128,7 @@
         <v>7.9307000000000002E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>3.25</v>
@@ -1111,7 +1160,7 @@
         <v>7.2926000000000005E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>3.25</v>
@@ -1140,7 +1189,7 @@
         <v>0.224939</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1169,7 +1218,7 @@
         <v>7.0454000000000003E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1201,7 +1250,7 @@
         <v>0.31914700000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>3.25</v>
@@ -1233,7 +1282,7 @@
         <v>7.9283999999999993E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>3.25</v>
@@ -1262,7 +1311,7 @@
         <v>8.1963999999999995E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18">
         <v>3.25</v>
@@ -1294,7 +1343,7 @@
         <v>6.8945999999999993E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>3.25</v>
@@ -1326,7 +1375,7 @@
         <v>7.5369000000000005E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20">
         <v>3.25</v>
@@ -1358,7 +1407,7 @@
         <v>9.7956000000000001E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21">
         <v>3.25</v>
@@ -1390,7 +1439,7 @@
         <v>8.2885E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>3.25</v>
@@ -1419,7 +1468,7 @@
         <v>0.226912</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1448,7 +1497,7 @@
         <v>7.3757000000000003E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1468,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1489,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1506,7 +1555,7 @@
         <v>0.221668</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1535,7 +1584,7 @@
         <v>7.0879999999999999E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1567,7 +1616,7 @@
         <v>0.105754</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1599,7 +1648,7 @@
         <v>6.5447000000000005E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30">
         <v>2.5</v>
@@ -1631,7 +1680,7 @@
         <v>8.7742000000000001E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1660,7 +1709,7 @@
         <v>7.0343000000000003E-2</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1692,7 +1741,7 @@
         <v>7.8880000000000006E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1724,7 +1773,7 @@
         <v>7.1391999999999997E-2</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34">
         <v>2.5</v>
@@ -1753,7 +1802,7 @@
         <v>7.2558999999999998E-2</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -1785,7 +1834,7 @@
         <v>0.110707</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1817,7 +1866,7 @@
         <v>7.8151999999999999E-2</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37">
         <v>2.5</v>
@@ -1849,7 +1898,7 @@
         <v>6.0179999999999997E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38">
         <v>2.5</v>
@@ -1878,7 +1927,7 @@
         <v>0.22012300000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1907,7 +1956,7 @@
         <v>7.1054999999999993E-2</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1939,7 +1988,7 @@
         <v>0.10341599999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1971,7 +2020,7 @@
         <v>7.1415999999999993E-2</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2003,7 +2052,7 @@
         <v>9.1051000000000007E-2</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -2032,7 +2081,7 @@
         <v>0.224185</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2061,7 +2110,7 @@
         <v>7.1522000000000002E-2</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2083,41 +2132,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2779EFD1-3B8F-4147-B112-97D8055EB249}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="84" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="18" max="18" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -2132,28 +2184,49 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -2183,35 +2256,62 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f>F2-$N$2</f>
-        <v>0.20799999999999999</v>
+        <f>F2-$P$2</f>
+        <v>0.124975</v>
       </c>
       <c r="K2">
-        <f>J2*(H2/1000)</f>
-        <v>6.2399999999999999E-4</v>
+        <f t="shared" ref="K2:K32" si="0">J2*(H2/1000)</f>
+        <v>3.7492500000000002E-4</v>
       </c>
       <c r="L2">
-        <f>(J2*H2/1000)/(B2* 10^-6)</f>
+        <f>(((H2*E2)/1000)*(D2-$P$2))/(B2/(1000*1000))</f>
+        <v>314.1993957703927</v>
+      </c>
+      <c r="M2">
+        <f>((D2-$P$2)*E2*H2)/(B2/1000)</f>
         <v>314.19939577039281</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M15" si="0">(J2*H2)/B2</f>
-        <v>0.31419939577039274</v>
-      </c>
       <c r="N2">
-        <f>AVERAGE(F16:F17)</f>
-        <v>-0.11992499999999999</v>
+        <f>M2/10000</f>
+        <v>3.1419939577039278E-2</v>
       </c>
       <c r="O2">
-        <f>AVERAGE(F25:F26)</f>
-        <v>-2.0549999999999999E-2</v>
+        <v>3.1419939577039278E-2</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(D16:D17)</f>
+        <v>-3.6900000000000002E-2</v>
       </c>
       <c r="Q2">
+        <f>AVERAGE(D25:D26)</f>
+        <v>-6.8499999999999993E-3</v>
+      </c>
+      <c r="S2">
         <f>(K2/B2)*1000</f>
-        <v>0.31419939577039274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.18878398791540785</v>
+      </c>
+      <c r="U2">
+        <f>(D2*E2*H2)/(B2/1000)</f>
+        <v>133.04380664652567</v>
+      </c>
+      <c r="V2">
+        <f>U2/10000</f>
+        <v>1.3304380664652567E-2</v>
+      </c>
+      <c r="X2">
+        <f>AVERAGE(D16,D17,D25,D26)</f>
+        <v>-2.1875000000000002E-2</v>
+      </c>
+      <c r="Z2">
+        <f>((D2-$X$2)*E2*H2)/(B2/1000)</f>
+        <v>240.43617824773418</v>
+      </c>
+      <c r="AA2">
+        <f>Z2/10000</f>
+        <v>2.4043617824773416E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>7.1</v>
       </c>
@@ -2241,27 +2341,50 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J19" si="2">F3-$N$2</f>
-        <v>0.16607499999999997</v>
+        <f>F3-$P$2</f>
+        <v>8.3049999999999999E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K32" si="3">J3*(H3/1000)</f>
-        <v>4.9822499999999993E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.4915000000000001E-4</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L32" si="4">(J3*H3/1000)/(B3* 10^-6)</f>
-        <v>273.14967105263156</v>
+        <f>(((H3*E3)/1000)*(D3-$P$2))/(B3/(1000*1000))</f>
+        <v>273.14967105263162</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
-        <v>0.27314967105263155</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q32" si="5">(K3/B3)*1000</f>
-        <v>0.27314967105263155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <f>((D3-$P$2)*E3*H3)/(B3/1000)</f>
+        <v>273.14967105263162</v>
+      </c>
+      <c r="N3">
+        <f>M3/10000</f>
+        <v>2.7314967105263162E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.7314967105263162E-2</v>
+      </c>
+      <c r="S3">
+        <f>(K3/B3)*1000</f>
+        <v>0.1365953947368421</v>
+      </c>
+      <c r="U3">
+        <f>(D3*E3*H3)/(B3/1000)</f>
+        <v>75.904605263157904</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V32" si="2">U3/10000</f>
+        <v>7.5904605263157907E-3</v>
+      </c>
+      <c r="Z3">
+        <f>((D3-$X$2)*E3*H3)/(B3/1000)</f>
+        <v>192.83511513157896</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA32" si="3">Z3/10000</f>
+        <v>1.9283511513157894E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7.2</v>
       </c>
@@ -2291,27 +2414,50 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <f>F4-$P$2</f>
+        <v>0.20102500000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>6.0307500000000001E-4</v>
+      </c>
+      <c r="L4">
+        <f>(((H4*E4)/1000)*(D4-$P$2))/(B4/(1000*1000))</f>
+        <v>431.46835443037975</v>
+      </c>
+      <c r="M4">
+        <f>((D4-$P$2)*E4*H4)/(B4/1000)</f>
+        <v>431.46835443037975</v>
+      </c>
+      <c r="N4">
+        <f>M4/10000</f>
+        <v>4.3146835443037976E-2</v>
+      </c>
+      <c r="O4">
+        <v>4.3146835443037976E-2</v>
+      </c>
+      <c r="S4">
+        <f>(K4/B4)*1000</f>
+        <v>0.30535443037974686</v>
+      </c>
+      <c r="U4">
+        <f>(D4*E4*H4)/(B4/1000)</f>
+        <v>249.30379746835445</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="2"/>
-        <v>0.28404999999999997</v>
-      </c>
-      <c r="K4">
+        <v>2.4930379746835443E-2</v>
+      </c>
+      <c r="Z4">
+        <f>((D4-$X$2)*E4*H4)/(B4/1000)</f>
+        <v>357.29430379746839</v>
+      </c>
+      <c r="AA4">
         <f t="shared" si="3"/>
-        <v>8.5214999999999998E-4</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
-        <v>431.46835443037969</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.43146835443037973</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="5"/>
-        <v>0.43146835443037967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3.5729430379746838E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8.1</v>
       </c>
@@ -2341,31 +2487,50 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <f>F5-$P$2</f>
+        <v>0.288775</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>8.6632500000000004E-4</v>
+      </c>
+      <c r="L5">
+        <f>(((H5*E5)/1000)*(D5-$P$2))/(B5/(1000*1000))</f>
+        <v>589.53488372093034</v>
+      </c>
+      <c r="M5">
+        <f>((D5-$P$2)*E5*H5)/(B5/1000)</f>
+        <v>589.53488372093034</v>
+      </c>
+      <c r="N5">
+        <f>M5/10000</f>
+        <v>5.8953488372093035E-2</v>
+      </c>
+      <c r="O5">
+        <v>5.8953488372093035E-2</v>
+      </c>
+      <c r="S5">
+        <f>(K5/B5)*1000</f>
+        <v>0.45788847780126851</v>
+      </c>
+      <c r="U5">
+        <f>(D5*E5*H5)/(B5/1000)</f>
+        <v>399.37896405919668</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="2"/>
-        <v>0.37180000000000002</v>
-      </c>
-      <c r="K5">
+        <v>3.9937896405919666E-2</v>
+      </c>
+      <c r="Z5">
+        <f>((D5-$X$2)*E5*H5)/(B5/1000)</f>
+        <v>512.10689746300216</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="3"/>
-        <v>1.1154000000000001E-3</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
-        <v>589.53488372093034</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.58953488372093032</v>
-      </c>
-      <c r="P5">
-        <f>K2/B2*100</f>
-        <v>3.1419939577039271E-2</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="5"/>
-        <v>0.58953488372093032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5.1210689746300213E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -2395,27 +2560,50 @@
         <v>1</v>
       </c>
       <c r="J6">
+        <f>F6-$P$2</f>
+        <v>0.16657500000000003</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4.9972500000000013E-4</v>
+      </c>
+      <c r="L6">
+        <f>(((H6*E6)/1000)*(D6-$P$2))/(B6/(1000*1000))</f>
+        <v>418.55785354946903</v>
+      </c>
+      <c r="M6">
+        <f>((D6-$P$2)*E6*H6)/(B6/1000)</f>
+        <v>418.55785354946897</v>
+      </c>
+      <c r="N6">
+        <f>M6/10000</f>
+        <v>4.1855785354946898E-2</v>
+      </c>
+      <c r="O6">
+        <v>4.1855785354946898E-2</v>
+      </c>
+      <c r="S6">
+        <f>(K6/B6)*1000</f>
+        <v>0.27933202906651766</v>
+      </c>
+      <c r="U6">
+        <f>(D6*E6*H6)/(B6/1000)</f>
+        <v>217.45388485187252</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="2"/>
-        <v>0.24959999999999999</v>
-      </c>
-      <c r="K6">
+        <v>2.1745388485187252E-2</v>
+      </c>
+      <c r="Z6">
+        <f>((D6-$X$2)*E6*H6)/(B6/1000)</f>
+        <v>336.67202347680268</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="3"/>
-        <v>7.4879999999999999E-4</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
-        <v>418.55785354946892</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.41855785354946895</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>0.41855785354946895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3.3667202347680267E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>11.1</v>
       </c>
@@ -2445,27 +2633,50 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <f>F7-$P$2</f>
+        <v>2.2925000000000001E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6.8775000000000005E-5</v>
+      </c>
+      <c r="L7">
+        <f>(((H7*E7)/1000)*(D7-$P$2))/(B7/(1000*1000))</f>
+        <v>159.88430583501011</v>
+      </c>
+      <c r="M7">
+        <f>((D7-$P$2)*E7*H7)/(B7/1000)</f>
+        <v>159.88430583501008</v>
+      </c>
+      <c r="N7">
+        <f>M7/10000</f>
+        <v>1.5988430583501009E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.5988430583501009E-2</v>
+      </c>
+      <c r="S7">
+        <f>(K7/B7)*1000</f>
+        <v>3.4595070422535214E-2</v>
+      </c>
+      <c r="U7">
+        <f>(D7*E7*H7)/(B7/1000)</f>
+        <v>-21.089034205231385</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="2"/>
-        <v>0.10594999999999999</v>
-      </c>
-      <c r="K7">
+        <v>-2.1089034205231385E-3</v>
+      </c>
+      <c r="Z7">
+        <f>((D7-$X$2)*E7*H7)/(B7/1000)</f>
+        <v>86.195296780684103</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="3"/>
-        <v>3.1784999999999995E-4</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
-        <v>159.88430583501005</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0.15988430583501004</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>0.15988430583501004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8.6195296780684095E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>26.1</v>
       </c>
@@ -2495,27 +2706,50 @@
         <v>1</v>
       </c>
       <c r="J8">
+        <f>F8-$P$2</f>
+        <v>0.18973000000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5.8816300000000005E-4</v>
+      </c>
+      <c r="L8">
+        <f>(((H8*E8)/1000)*(D8-$P$2))/(B8/(1000*1000))</f>
+        <v>416.69114688128775</v>
+      </c>
+      <c r="M8">
+        <f>((D8-$P$2)*E8*H8)/(B8/1000)</f>
+        <v>416.69114688128769</v>
+      </c>
+      <c r="N8">
+        <f>M8/10000</f>
+        <v>4.1669114688128769E-2</v>
+      </c>
+      <c r="O8">
+        <v>4.1669114688128769E-2</v>
+      </c>
+      <c r="S8">
+        <f>(K8/B8)*1000</f>
+        <v>0.29585663983903421</v>
+      </c>
+      <c r="U8">
+        <f>(D8*E8*H8)/(B8/1000)</f>
+        <v>238.31639839034202</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="2"/>
-        <v>0.27275499999999997</v>
-      </c>
-      <c r="K8">
+        <v>2.3831639839034201E-2</v>
+      </c>
+      <c r="Z8">
+        <f>((D8-$X$2)*E8*H8)/(B8/1000)</f>
+        <v>344.06023641851107</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="3"/>
-        <v>8.4554049999999983E-4</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
-        <v>425.32218309859155</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>0.42532218309859149</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>0.42532218309859149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3.4406023641851108E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>26.2</v>
       </c>
@@ -2545,27 +2779,50 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <f>F9-$P$2</f>
+        <v>0.25562499999999999</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>7.6687499999999998E-4</v>
+      </c>
+      <c r="L9">
+        <f>(((H9*E9)/1000)*(D9-$P$2))/(B9/(1000*1000))</f>
+        <v>467.53336401288539</v>
+      </c>
+      <c r="M9">
+        <f>((D9-$P$2)*E9*H9)/(B9/1000)</f>
+        <v>467.53336401288544</v>
+      </c>
+      <c r="N9">
+        <f>M9/10000</f>
+        <v>4.6753336401288544E-2</v>
+      </c>
+      <c r="O9">
+        <v>4.6753336401288544E-2</v>
+      </c>
+      <c r="S9">
+        <f>(K9/B9)*1000</f>
+        <v>0.35291072250345146</v>
+      </c>
+      <c r="U9">
+        <f>(D9*E9*H9)/(B9/1000)</f>
+        <v>301.96732627703631</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
-        <v>0.33865000000000001</v>
-      </c>
-      <c r="K9">
+        <v>3.0196732627703629E-2</v>
+      </c>
+      <c r="Z9">
+        <f>((D9-$X$2)*E9*H9)/(B9/1000)</f>
+        <v>400.1179245283019</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="3"/>
-        <v>1.0159500000000001E-3</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>467.5333640128855</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0.46753336401288548</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>0.46753336401288542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4.0011792452830187E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>31.1</v>
       </c>
@@ -2595,27 +2852,50 @@
         <v>1</v>
       </c>
       <c r="J10">
+        <f>F10-$P$2</f>
+        <v>0.41877500000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1.256325E-3</v>
+      </c>
+      <c r="L10">
+        <f>(((H10*E10)/1000)*(D10-$P$2))/(B10/(1000*1000))</f>
+        <v>742.6739023186974</v>
+      </c>
+      <c r="M10">
+        <f>((D10-$P$2)*E10*H10)/(B10/1000)</f>
+        <v>742.6739023186974</v>
+      </c>
+      <c r="N10">
+        <f>M10/10000</f>
+        <v>7.4267390231869734E-2</v>
+      </c>
+      <c r="O10">
+        <v>7.4267390231869734E-2</v>
+      </c>
+      <c r="S10">
+        <f>(K10/B10)*1000</f>
+        <v>0.61979526393685247</v>
+      </c>
+      <c r="U10">
+        <f>(D10*E10*H10)/(B10/1000)</f>
+        <v>565.18253576714346</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="2"/>
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="K10">
+        <v>5.6518253576714347E-2</v>
+      </c>
+      <c r="Z10">
+        <f>((D10-$X$2)*E10*H10)/(B10/1000)</f>
+        <v>670.402688702516</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="3"/>
-        <v>1.5054000000000001E-3</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
-        <v>742.67390231869751</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0.74267390231869757</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>0.74267390231869757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6.7040268870251607E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>31.2</v>
       </c>
@@ -2645,30 +2925,53 @@
         <v>1</v>
       </c>
       <c r="J11">
+        <f>F11-$P$2</f>
+        <v>0.43892500000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1.3167750000000001E-3</v>
+      </c>
+      <c r="L11">
+        <f>(((H11*E11)/1000)*(D11-$P$2))/(B11/(1000*1000))</f>
+        <v>755.71911196911196</v>
+      </c>
+      <c r="M11">
+        <f>((D11-$P$2)*E11*H11)/(B11/1000)</f>
+        <v>755.71911196911208</v>
+      </c>
+      <c r="N11">
+        <f>M11/10000</f>
+        <v>7.5571911196911201E-2</v>
+      </c>
+      <c r="O11">
+        <v>7.5571911196911201E-2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <f>(K11/B11)*1000</f>
+        <v>0.63550916988416994</v>
+      </c>
+      <c r="U11">
+        <f>(D11*E11*H11)/(B11/1000)</f>
+        <v>582.08252895752889</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
-        <v>0.52195000000000003</v>
-      </c>
-      <c r="K11">
+        <v>5.8208252895752891E-2</v>
+      </c>
+      <c r="Z11">
+        <f>((D11-$X$2)*E11*H11)/(B11/1000)</f>
+        <v>685.01749517374515</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="3"/>
-        <v>1.5658500000000001E-3</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>755.71911196911208</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>0.75571911196911201</v>
-      </c>
-      <c r="P11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>0.75571911196911201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6.8501749517374519E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>34.1</v>
       </c>
@@ -2698,27 +3001,50 @@
         <v>1</v>
       </c>
       <c r="J12">
+        <f>F12-$P$2</f>
+        <v>0.14545</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>4.3635000000000001E-4</v>
+      </c>
+      <c r="L12">
+        <f>(((H12*E12)/1000)*(D12-$P$2))/(B12/(1000*1000))</f>
+        <v>344.4346733668342</v>
+      </c>
+      <c r="M12">
+        <f>((D12-$P$2)*E12*H12)/(B12/1000)</f>
+        <v>344.4346733668342</v>
+      </c>
+      <c r="N12">
+        <f>M12/10000</f>
+        <v>3.4443467336683423E-2</v>
+      </c>
+      <c r="O12">
+        <v>3.4443467336683423E-2</v>
+      </c>
+      <c r="S12">
+        <f>(K12/B12)*1000</f>
+        <v>0.2192713567839196</v>
+      </c>
+      <c r="U12">
+        <f>(D12*E12*H12)/(B12/1000)</f>
+        <v>163.643216080402</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="2"/>
-        <v>0.22847499999999998</v>
-      </c>
-      <c r="K12">
+        <v>1.6364321608040199E-2</v>
+      </c>
+      <c r="Z12">
+        <f>((D12-$X$2)*E12*H12)/(B12/1000)</f>
+        <v>270.81972361809051</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="3"/>
-        <v>6.8542499999999992E-4</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
-        <v>344.43467336683415</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>0.34443467336683414</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>0.34443467336683414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2.7081972361809051E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>34.200000000000003</v>
       </c>
@@ -2748,27 +3074,50 @@
         <v>1</v>
       </c>
       <c r="J13">
+        <f>F13-$P$2</f>
+        <v>0.37132499999999996</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.1139749999999999E-3</v>
+      </c>
+      <c r="L13">
+        <f>(((H13*E13)/1000)*(D13-$P$2))/(B13/(1000*1000))</f>
+        <v>708.81435257410294</v>
+      </c>
+      <c r="M13">
+        <f>((D13-$P$2)*E13*H13)/(B13/1000)</f>
+        <v>708.81435257410305</v>
+      </c>
+      <c r="N13">
+        <f>M13/10000</f>
+        <v>7.0881435257410308E-2</v>
+      </c>
+      <c r="O13">
+        <v>7.0881435257410308E-2</v>
+      </c>
+      <c r="S13">
+        <f>(K13/B13)*1000</f>
+        <v>0.57929017160686425</v>
+      </c>
+      <c r="U13">
+        <f>(D13*E13*H13)/(B13/1000)</f>
+        <v>521.72386895475825</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
-        <v>0.45434999999999998</v>
-      </c>
-      <c r="K13">
+        <v>5.2172386895475827E-2</v>
+      </c>
+      <c r="Z13">
+        <f>((D13-$X$2)*E13*H13)/(B13/1000)</f>
+        <v>632.63455538221524</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="3"/>
-        <v>1.36305E-3</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
-        <v>708.81435257410283</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>0.70881435257410286</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>0.70881435257410297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6.3263455538221519E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>49.1</v>
       </c>
@@ -2798,27 +3147,50 @@
         <v>1</v>
       </c>
       <c r="J14">
+        <f>F14-$P$2</f>
+        <v>0.17237000000000002</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>5.171100000000001E-4</v>
+      </c>
+      <c r="L14">
+        <f>(((H14*E14)/1000)*(D14-$P$2))/(B14/(1000*1000))</f>
+        <v>408.936170212766</v>
+      </c>
+      <c r="M14">
+        <f>((D14-$P$2)*E14*H14)/(B14/1000)</f>
+        <v>408.93617021276606</v>
+      </c>
+      <c r="N14">
+        <f>M14/10000</f>
+        <v>4.0893617021276606E-2</v>
+      </c>
+      <c r="O14">
+        <v>4.0893617021276606E-2</v>
+      </c>
+      <c r="S14">
+        <f>(K14/B14)*1000</f>
+        <v>0.28211129296235682</v>
+      </c>
+      <c r="U14">
+        <f>(D14*E14*H14)/(B14/1000)</f>
+        <v>221.71849427168578</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="2"/>
-        <v>0.25539499999999998</v>
-      </c>
-      <c r="K14">
+        <v>2.2171849427168579E-2</v>
+      </c>
+      <c r="Z14">
+        <f>((D14-$X$2)*E14*H14)/(B14/1000)</f>
+        <v>332.70458265139121</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="3"/>
-        <v>7.6618499999999996E-4</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
-        <v>417.99509001636659</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>0.41799509001636659</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>0.41799509001636659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3.3270458265139122E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>56.1</v>
       </c>
@@ -2848,27 +3220,50 @@
         <v>1</v>
       </c>
       <c r="J15">
+        <f>F15-$P$2</f>
+        <v>0.24912499999999999</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>7.4737499999999999E-4</v>
+      </c>
+      <c r="L15">
+        <f>(((H15*E15)/1000)*(D15-$P$2))/(B15/(1000*1000))</f>
+        <v>505.04308160162191</v>
+      </c>
+      <c r="M15">
+        <f>((D15-$P$2)*E15*H15)/(B15/1000)</f>
+        <v>505.04308160162196</v>
+      </c>
+      <c r="N15">
+        <f>M15/10000</f>
+        <v>5.0504308160162194E-2</v>
+      </c>
+      <c r="O15">
+        <v>5.0504308160162194E-2</v>
+      </c>
+      <c r="S15">
+        <f>(K15/B15)*1000</f>
+        <v>0.37880131779016724</v>
+      </c>
+      <c r="U15">
+        <f>(D15*E15*H15)/(B15/1000)</f>
+        <v>322.69386720729852</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="2"/>
-        <v>0.33215</v>
-      </c>
-      <c r="K15">
+        <v>3.2269386720729855E-2</v>
+      </c>
+      <c r="Z15">
+        <f>((D15-$X$2)*E15*H15)/(B15/1000)</f>
+        <v>430.79384186517996</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="3"/>
-        <v>9.9645000000000007E-4</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
-        <v>505.04308160162191</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0.50504308160162192</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>0.50504308160162192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4.3079384186517994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2895,23 +3290,46 @@
         <v>1</v>
       </c>
       <c r="J16">
+        <f>F16-$P$2</f>
+        <v>-0.12299999999999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-3.6899999999999997E-4</v>
+      </c>
+      <c r="L16">
+        <f>(((H16*E16)/1000)*(D16-$P$2))/(B16/(1000*1000))</f>
+        <v>-1199250000000000</v>
+      </c>
+      <c r="M16">
+        <f>((D16-$P$2)*E16*H16)/(B16/1000)</f>
+        <v>-1199250000000000</v>
+      </c>
+      <c r="N16">
+        <f>M16/10000</f>
+        <v>-119925000000</v>
+      </c>
+      <c r="O16">
+        <v>-119925000000</v>
+      </c>
+      <c r="S16">
+        <f>(K16/B16)*1000</f>
+        <v>-3689999999999.9995</v>
+      </c>
+      <c r="U16">
+        <f>(D16*E16*H16)/(B16/1000)</f>
+        <v>-4797000000000000</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="2"/>
-        <v>-3.9974999999999997E-2</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>-1.1992499999999999E-4</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
-        <v>-1199250000000000</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>-1199249999999.9998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-479700000000</v>
+      </c>
+      <c r="Z16">
+        <f>((D16-$X$2)*E16*H16)/(B16/1000)</f>
+        <v>-2664187500000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2938,23 +3356,46 @@
         <v>1</v>
       </c>
       <c r="J17">
+        <f>F17-$P$2</f>
+        <v>-4.3049999999999991E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>-1.2914999999999997E-4</v>
+      </c>
+      <c r="L17">
+        <f>(((H17*E17)/1000)*(D17-$P$2))/(B17/(1000*1000))</f>
+        <v>1199250000000000.3</v>
+      </c>
+      <c r="M17">
+        <f>((D17-$P$2)*E17*H17)/(B17/1000)</f>
+        <v>1199250000000000</v>
+      </c>
+      <c r="N17">
+        <f>M17/10000</f>
+        <v>119925000000</v>
+      </c>
+      <c r="O17">
+        <v>119925000000</v>
+      </c>
+      <c r="S17">
+        <f>(K17/B17)*1000</f>
+        <v>-1291499999999.9995</v>
+      </c>
+      <c r="U17">
+        <f>(D17*E17*H17)/(B17/1000)</f>
+        <v>-2398500000000000</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
-        <v>3.9974999999999997E-2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>1.1992499999999999E-4</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
-        <v>1199250000000000</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>1199249999999.9998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-239850000000</v>
+      </c>
+      <c r="Z17">
+        <f>((D17-$X$2)*E17*H17)/(B17/1000)</f>
+        <v>-265687499999999.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2984,27 +3425,50 @@
         <v>1</v>
       </c>
       <c r="J18">
+        <f>F18-$P$2</f>
+        <v>0.86955000000000005</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2.6086500000000001E-3</v>
+      </c>
+      <c r="L18">
+        <f>(((H18*E18)/1000)*(D18-$P$2))/(B18/(1000*1000))</f>
+        <v>1143.0899999999999</v>
+      </c>
+      <c r="M18">
+        <f>((D18-$P$2)*E18*H18)/(B18/1000)</f>
+        <v>1143.0899999999999</v>
+      </c>
+      <c r="N18">
+        <f>M18/10000</f>
+        <v>0.11430899999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.11430899999999999</v>
+      </c>
+      <c r="S18">
+        <f>(K18/B18)*1000</f>
+        <v>1.0434600000000001</v>
+      </c>
+      <c r="U18">
+        <f>(D18*E18*H18)/(B18/1000)</f>
+        <v>999.17999999999972</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="2"/>
-        <v>0.95257499999999995</v>
-      </c>
-      <c r="K18">
+        <v>9.9917999999999979E-2</v>
+      </c>
+      <c r="Z18">
+        <f>((D18-$X$2)*E18*H18)/(B18/1000)</f>
+        <v>1084.4924999999998</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="3"/>
-        <v>2.8577249999999998E-3</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
-        <v>1143.0899999999999</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ref="M18:M24" si="6">(J18*H18)/B18</f>
-        <v>1.1430899999999999</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="5"/>
-        <v>1.1430899999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.10844924999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3034,27 +3498,50 @@
         <v>1</v>
       </c>
       <c r="J19">
+        <f>F19-$P$2</f>
+        <v>0.48767499999999997</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.463025E-3</v>
+      </c>
+      <c r="L19">
+        <f>(((H19*E19)/1000)*(D19-$P$2))/(B19/(1000*1000))</f>
+        <v>417.58536585365852</v>
+      </c>
+      <c r="M19">
+        <f>((D19-$P$2)*E19*H19)/(B19/1000)</f>
+        <v>417.58536585365857</v>
+      </c>
+      <c r="N19">
+        <f>M19/10000</f>
+        <v>4.1758536585365859E-2</v>
+      </c>
+      <c r="O19">
+        <v>4.1758536585365859E-2</v>
+      </c>
+      <c r="S19">
+        <f>(K19/B19)*1000</f>
+        <v>0.35683536585365855</v>
+      </c>
+      <c r="U19">
+        <f>(D19*E19*H19)/(B19/1000)</f>
+        <v>329.83536585365857</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="2"/>
-        <v>0.57069999999999999</v>
-      </c>
-      <c r="K19">
+        <v>3.2983536585365854E-2</v>
+      </c>
+      <c r="Z19">
+        <f>((D19-$X$2)*E19*H19)/(B19/1000)</f>
+        <v>381.85518292682934</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="3"/>
-        <v>1.7121E-3</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
-        <v>417.58536585365857</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>0.41758536585365857</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="5"/>
-        <v>0.41758536585365857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3.8185518292682935E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>11.2</v>
       </c>
@@ -3084,27 +3571,50 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J32" si="7">F20-$O$2</f>
-        <v>2.0069999999999998E-2</v>
+        <f t="shared" ref="J20:J32" si="4">F20-$Q$2</f>
+        <v>6.3699999999999989E-3</v>
       </c>
       <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.5924999999999997E-5</v>
+      </c>
+      <c r="L20">
+        <f>(((H20*E20)/1000)*(D20-$Q$2))/(B20/(1000*1000))</f>
+        <v>79.800000000000011</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M32" si="5">((D20-$Q$2)*E20*H20)/(B20/1000)</f>
+        <v>79.8</v>
+      </c>
+      <c r="N20">
+        <f>M20/10000</f>
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="O20">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="S20">
+        <f>(K20/B20)*1000</f>
+        <v>3.1849999999999996E-2</v>
+      </c>
+      <c r="U20">
+        <f>(D20*E20*H20)/(B20/1000)</f>
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>-2.4000000000000003E-4</v>
+      </c>
+      <c r="Z20">
+        <f>((D20-$X$2)*E20*H20)/(B20/1000)</f>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="3"/>
-        <v>5.0174999999999993E-5</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="4"/>
-        <v>100.35000000000001</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>0.10034999999999999</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="5"/>
-        <v>0.10034999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2.6009999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>12.1</v>
       </c>
@@ -3134,27 +3644,50 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="7"/>
-        <v>-0.17241000000000001</v>
+        <f t="shared" si="4"/>
+        <v>-0.18611</v>
       </c>
       <c r="K21">
+        <f t="shared" si="0"/>
+        <v>-4.6527500000000002E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L32" si="6">(((H21*E21)/1000)*(D21-$Q$2))/(B21/(1000*1000))</f>
+        <v>-717.56097560975616</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>-717.56097560975616</v>
+      </c>
+      <c r="N21">
+        <f>M21/10000</f>
+        <v>-7.1756097560975618E-2</v>
+      </c>
+      <c r="O21">
+        <v>-7.1756097560975618E-2</v>
+      </c>
+      <c r="S21">
+        <f>(K21/B21)*1000</f>
+        <v>-0.75654471544715451</v>
+      </c>
+      <c r="U21">
+        <f>(D21*E21*H21)/(B21/1000)</f>
+        <v>-784.39024390243901</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>-7.8439024390243903E-2</v>
+      </c>
+      <c r="Z21">
+        <f>((D21-$X$2)*E21*H21)/(B21/1000)</f>
+        <v>-570.97560975609747</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="3"/>
-        <v>-4.3102500000000003E-4</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="4"/>
-        <v>-700.85365853658539</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="6"/>
-        <v>-0.70085365853658532</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="5"/>
-        <v>-0.70085365853658532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-5.7097560975609744E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>12.2</v>
       </c>
@@ -3184,27 +3717,50 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
-        <v>2.631E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.261E-2</v>
       </c>
       <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3.1525000000000001E-5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>70.70063694267516</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>70.700636942675146</v>
+      </c>
+      <c r="N22">
+        <f>M22/10000</f>
+        <v>7.0700636942675147E-3</v>
+      </c>
+      <c r="O22">
+        <v>7.0700636942675147E-3</v>
+      </c>
+      <c r="S22">
+        <f>(K22/B22)*1000</f>
+        <v>4.015923566878981E-2</v>
+      </c>
+      <c r="U22">
+        <f>(D22*E22*H22)/(B22/1000)</f>
+        <v>18.343949044585987</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>1.8343949044585988E-3</v>
+      </c>
+      <c r="Z22">
+        <f>((D22-$X$2)*E22*H22)/(B22/1000)</f>
+        <v>185.54140127388536</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="3"/>
-        <v>6.5775E-5</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
-        <v>83.789808917197448</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="6"/>
-        <v>8.378980891719745E-2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>8.378980891719745E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1.8554140127388534E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>29.1</v>
       </c>
@@ -3234,27 +3790,50 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="7"/>
-        <v>-0.32912999999999998</v>
+        <f t="shared" si="4"/>
+        <v>-0.34282999999999997</v>
       </c>
       <c r="K23">
+        <f t="shared" si="0"/>
+        <v>-8.5707499999999989E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>-1350.2431118314425</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>-1350.2431118314423</v>
+      </c>
+      <c r="N23">
+        <f>M23/10000</f>
+        <v>-0.13502431118314423</v>
+      </c>
+      <c r="O23">
+        <v>-0.13502431118314423</v>
+      </c>
+      <c r="S23">
+        <f>(K23/B23)*1000</f>
+        <v>-1.3891004862236627</v>
+      </c>
+      <c r="U23">
+        <f>(D23*E23*H23)/(B23/1000)</f>
+        <v>-1416.8557536466774</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>-0.14168557536466775</v>
+      </c>
+      <c r="Z23">
+        <f>((D23-$X$2)*E23*H23)/(B23/1000)</f>
+        <v>-1204.1329011345217</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="3"/>
-        <v>-8.2282500000000001E-4</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>-1333.5899513776335</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="6"/>
-        <v>-1.3335899513776337</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>-1.3335899513776339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-0.12041329011345217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>56.2</v>
       </c>
@@ -3284,27 +3863,50 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
-        <v>-2.1049999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.4749999999999996E-2</v>
       </c>
       <c r="K24">
+        <f t="shared" si="0"/>
+        <v>-1.0424999999999999E-4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>-53.07639524245198</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>-53.076395242451973</v>
+      </c>
+      <c r="N24">
+        <f>M24/10000</f>
+        <v>-5.307639524245197E-3</v>
+      </c>
+      <c r="O24">
+        <v>-5.307639524245197E-3</v>
+      </c>
+      <c r="S24">
+        <f>(K24/B24)*1000</f>
+        <v>-9.5379688929551676E-2</v>
+      </c>
+      <c r="U24">
+        <f>(D24*E24*H24)/(B24/1000)</f>
+        <v>-114.18115279048493</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>-1.1418115279048492E-2</v>
+      </c>
+      <c r="Z24">
+        <f>((D24-$X$2)*E24*H24)/(B24/1000)</f>
+        <v>80.952653247941456</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="3"/>
-        <v>-6.3150000000000004E-5</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="4"/>
-        <v>-57.776761207685276</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="6"/>
-        <v>-5.7776761207685268E-2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>-5.7776761207685275E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8.0952653247941455E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -3331,23 +3933,46 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
-        <v>1.4249999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.4999999999999927E-4</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
-        <v>4.2749999999999996E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.6499999999999978E-6</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
-        <v>427499999999999.94</v>
-      </c>
-      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>427499999999999.88</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="5"/>
-        <v>427499999999.99994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>427499999999999.88</v>
+      </c>
+      <c r="N25">
+        <f>M25/10000</f>
+        <v>42749999999.999985</v>
+      </c>
+      <c r="O25">
+        <v>42749999999.999985</v>
+      </c>
+      <c r="S25">
+        <f>(K25/B25)*1000</f>
+        <v>16499999999.999977</v>
+      </c>
+      <c r="U25">
+        <f>(D25*E25*H25)/(B25/1000)</f>
+        <v>-189000000000000</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>-18900000000</v>
+      </c>
+      <c r="Z25">
+        <f>((D25-$X$2)*E25*H25)/(B25/1000)</f>
+        <v>1779750000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -3374,23 +3999,46 @@
         <v>2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
-        <v>-1.4249999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.7949999999999999E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
-        <v>-4.2749999999999996E-5</v>
+        <f t="shared" si="0"/>
+        <v>-8.3850000000000005E-5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.2749999999999992E+16</v>
       </c>
-      <c r="Q26">
+      <c r="M26">
         <f t="shared" si="5"/>
-        <v>-42749999999999.992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-4.2749999999999992E+16</v>
+      </c>
+      <c r="N26">
+        <f>M26/10000</f>
+        <v>-4274999999999.999</v>
+      </c>
+      <c r="O26">
+        <v>-4274999999999.999</v>
+      </c>
+      <c r="S26">
+        <f>(K26/B26)*1000</f>
+        <v>-83850000000000</v>
+      </c>
+      <c r="U26">
+        <f>(D26*E26*H26)/(B26/1000)</f>
+        <v>-1.0439999999999998E+17</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>-10439999999999.998</v>
+      </c>
+      <c r="Z26">
+        <f>((D26-$X$2)*E26*H26)/(B26/1000)</f>
+        <v>9.2475000000000016E+16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3420,27 +4068,50 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
-        <v>0.73454999999999993</v>
+        <f t="shared" si="4"/>
+        <v>0.72084999999999999</v>
       </c>
       <c r="K27">
+        <f t="shared" si="0"/>
+        <v>2.1625500000000001E-3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>1049.3571428571427</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1049.3571428571424</v>
+      </c>
+      <c r="N27">
+        <f>M27/10000</f>
+        <v>0.10493571428571424</v>
+      </c>
+      <c r="O27">
+        <v>0.10493571428571424</v>
+      </c>
+      <c r="S27">
+        <f>(K27/B27)*1000</f>
+        <v>1.0297857142857143</v>
+      </c>
+      <c r="U27">
+        <f>(D27*E27*H27)/(B27/1000)</f>
+        <v>1019.9999999999998</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999998</v>
+      </c>
+      <c r="Z27">
+        <f>((D27-$X$2)*E27*H27)/(B27/1000)</f>
+        <v>1113.7499999999998</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="3"/>
-        <v>2.2036499999999997E-3</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
-        <v>1049.3571428571429</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M32" si="8">(J27*H27)/B27</f>
-        <v>1.0493571428571427</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>1.0493571428571427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.11137499999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3470,30 +4141,53 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
-        <v>0.29205000000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.27835000000000004</v>
       </c>
       <c r="K28">
+        <f t="shared" si="0"/>
+        <v>8.3505000000000016E-4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>380.93478260869563</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>380.93478260869563</v>
+      </c>
+      <c r="N28">
+        <f>M28/10000</f>
+        <v>3.8093478260869562E-2</v>
+      </c>
+      <c r="O28">
+        <v>3.8093478260869562E-2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28">
+        <f>(K28/B28)*1000</f>
+        <v>0.36306521739130443</v>
+      </c>
+      <c r="U28">
+        <f>(D28*E28*H28)/(B28/1000)</f>
+        <v>354.13043478260863</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>3.541304347826086E-2</v>
+      </c>
+      <c r="Z28">
+        <f>((D28-$X$2)*E28*H28)/(B28/1000)</f>
+        <v>439.7282608695653</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="3"/>
-        <v>8.7615000000000013E-4</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="4"/>
-        <v>380.9347826086958</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="8"/>
-        <v>0.38093478260869573</v>
-      </c>
-      <c r="P28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>0.38093478260869573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4.3972826086956532E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -3523,27 +4217,50 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
-        <v>0.97994999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.96625000000000005</v>
       </c>
       <c r="K29">
+        <f t="shared" si="0"/>
+        <v>2.8987500000000003E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>1428.4985422740524</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>1428.4985422740524</v>
+      </c>
+      <c r="N29">
+        <f>M29/10000</f>
+        <v>0.14284985422740523</v>
+      </c>
+      <c r="O29">
+        <v>0.14284985422740523</v>
+      </c>
+      <c r="S29">
+        <f>(K29/B29)*1000</f>
+        <v>1.4085276967930032</v>
+      </c>
+      <c r="U29">
+        <f>(D29*E29*H29)/(B29/1000)</f>
+        <v>1398.542274052478</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>0.13985422740524781</v>
+      </c>
+      <c r="Z29">
+        <f>((D29-$X$2)*E29*H29)/(B29/1000)</f>
+        <v>1494.2055393586004</v>
+      </c>
+      <c r="AA29">
         <f t="shared" si="3"/>
-        <v>2.9398499999999999E-3</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="4"/>
-        <v>1428.4985422740526</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="8"/>
-        <v>1.4284985422740526</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="5"/>
-        <v>1.4284985422740526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.14942055393586004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3573,27 +4290,50 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
-        <v>1.06365</v>
+        <f t="shared" si="4"/>
+        <v>1.0499499999999999</v>
       </c>
       <c r="K30">
+        <f t="shared" si="0"/>
+        <v>3.14985E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>1480.0324675324675</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>1480.0324675324675</v>
+      </c>
+      <c r="N30">
+        <f>M30/10000</f>
+        <v>0.14800324675324675</v>
+      </c>
+      <c r="O30">
+        <v>0.14800324675324675</v>
+      </c>
+      <c r="S30">
+        <f>(K30/B30)*1000</f>
+        <v>1.460969387755102</v>
+      </c>
+      <c r="U30">
+        <f>(D30*E30*H30)/(B30/1000)</f>
+        <v>1451.4378478664191</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>0.14514378478664192</v>
+      </c>
+      <c r="Z30">
+        <f>((D30-$X$2)*E30*H30)/(B30/1000)</f>
+        <v>1542.7527829313544</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="3"/>
-        <v>3.1909500000000001E-3</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="4"/>
-        <v>1480.0324675324675</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="8"/>
-        <v>1.4800324675324674</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="5"/>
-        <v>1.4800324675324674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.15427527829313545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3623,27 +4363,50 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
-        <v>1.19895</v>
+        <f t="shared" si="4"/>
+        <v>1.1852499999999999</v>
       </c>
       <c r="K31">
+        <f t="shared" si="0"/>
+        <v>3.5557499999999999E-3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>1651.4462809917356</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>1651.4462809917356</v>
+      </c>
+      <c r="N31">
+        <f>M31/10000</f>
+        <v>0.16514462809917357</v>
+      </c>
+      <c r="O31">
+        <v>0.16514462809917357</v>
+      </c>
+      <c r="S31">
+        <f>(K31/B31)*1000</f>
+        <v>1.6325757575757576</v>
+      </c>
+      <c r="U31">
+        <f>(D31*E31*H31)/(B31/1000)</f>
+        <v>1623.1404958677685</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>0.16231404958677687</v>
+      </c>
+      <c r="Z31">
+        <f>((D31-$X$2)*E31*H31)/(B31/1000)</f>
+        <v>1713.5330578512398</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="3"/>
-        <v>3.59685E-3</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="4"/>
-        <v>1651.4462809917356</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="8"/>
-        <v>1.6514462809917356</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="5"/>
-        <v>1.6514462809917354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.17135330578512398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3673,24 +4436,47 @@
         <v>2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
-        <v>0.56894999999999996</v>
+        <f t="shared" si="4"/>
+        <v>0.55525000000000002</v>
       </c>
       <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1.6657500000000001E-3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>1521.2566844919784</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>1521.2566844919781</v>
+      </c>
+      <c r="N32">
+        <f>M32/10000</f>
+        <v>0.15212566844919781</v>
+      </c>
+      <c r="O32">
+        <v>0.15212566844919781</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32" si="7">(K32/B32)*1000</f>
+        <v>1.4846256684491976</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ref="U32" si="8">(D32*E32*H32)/(B32/1000)</f>
+        <v>1466.3101604278072</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>0.14663101604278073</v>
+      </c>
+      <c r="Z32">
+        <f>((D32-$X$2)*E32*H32)/(B32/1000)</f>
+        <v>1641.7780748663101</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="3"/>
-        <v>1.70685E-3</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="4"/>
-        <v>1521.2566844919784</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="8"/>
-        <v>1.5212566844919782</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="5"/>
-        <v>1.5212566844919784</v>
+        <v>0.16417780748663102</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3917,7 +4703,7 @@
         <v>1.6404000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -3931,7 +4717,7 @@
         <v>1.6480999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -3945,7 +4731,7 @@
         <v>1.6048</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -3958,6 +4744,113 @@
       <c r="F51">
         <v>1.6051</v>
       </c>
+    </row>
+    <row r="52" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4">
+        <f>0.2593</f>
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3</v>
+      </c>
+      <c r="H53" s="4">
+        <v>3</v>
+      </c>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+    </row>
+    <row r="54" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4">
+        <v>9.06E-2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="H54" s="4">
+        <v>3</v>
+      </c>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+    </row>
+    <row r="55" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="H55" s="4">
+        <v>3</v>
+      </c>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+    </row>
+    <row r="56" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3</v>
+      </c>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
@@ -3975,7 +4868,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="87.44140625" customWidth="1"/>
@@ -3983,28 +4876,28 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/Stoich/Manual Calc_Total P.xlsx
+++ b/Raw_data/Stoich/Manual Calc_Total P.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Stoich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{F50745A5-956B-46B0-BBAD-8785E70849EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00943F66-7F76-4A63-B36B-A2D097183E00}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="14_{F50745A5-956B-46B0-BBAD-8785E70849EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D81B62A3-3338-4ECE-BDBE-D076952B370A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A86AD899-9B24-4317-945C-DAD9099D818F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A86AD899-9B24-4317-945C-DAD9099D818F}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Run" sheetId="2" r:id="rId1"/>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2779EFD1-3B8F-4147-B112-97D8055EB249}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,6 +2143,8 @@
     <col min="1" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.109375" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
@@ -2247,7 +2249,7 @@
         <v>8.8075000000000001E-2</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2256,24 +2258,24 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f>F2-$P$2</f>
+        <f t="shared" ref="J2:J19" si="0">F2-$P$2</f>
         <v>0.124975</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K32" si="0">J2*(H2/1000)</f>
+        <f t="shared" ref="K2:K32" si="1">J2*(H2/1000)</f>
         <v>3.7492500000000002E-4</v>
       </c>
       <c r="L2">
-        <f>(((H2*E2)/1000)*(D2-$P$2))/(B2/(1000*1000))</f>
-        <v>314.1993957703927</v>
+        <f>(((H2*E2)/1000)*(D2))/(B2/(1000*1000))</f>
+        <v>133.04380664652567</v>
       </c>
       <c r="M2">
-        <f>((D2-$P$2)*E2*H2)/(B2/1000)</f>
-        <v>314.19939577039281</v>
+        <f>((D2)*(E2)*(H2/1000))/(B2/1000)</f>
+        <v>0.13304380664652568</v>
       </c>
       <c r="N2">
-        <f>M2/10000</f>
-        <v>3.1419939577039278E-2</v>
+        <f>M2/10</f>
+        <v>1.3304380664652568E-2</v>
       </c>
       <c r="O2">
         <v>3.1419939577039278E-2</v>
@@ -2287,11 +2289,11 @@
         <v>-6.8499999999999993E-3</v>
       </c>
       <c r="S2">
-        <f>(K2/B2)*1000</f>
+        <f t="shared" ref="S2:S31" si="2">(K2/B2)*1000</f>
         <v>0.18878398791540785</v>
       </c>
       <c r="U2">
-        <f>(D2*E2*H2)/(B2/1000)</f>
+        <f t="shared" ref="U2:U31" si="3">(D2*E2*H2)/(B2/1000)</f>
         <v>133.04380664652567</v>
       </c>
       <c r="V2">
@@ -2303,7 +2305,7 @@
         <v>-2.1875000000000002E-2</v>
       </c>
       <c r="Z2">
-        <f>((D2-$X$2)*E2*H2)/(B2/1000)</f>
+        <f t="shared" ref="Z2:Z32" si="4">((D2-$X$2)*E2*H2)/(B2/1000)</f>
         <v>240.43617824773418</v>
       </c>
       <c r="AA2">
@@ -2319,7 +2321,7 @@
         <v>1.8240000000000001</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C32" si="1">B3/1000000</f>
+        <f t="shared" ref="C3:C32" si="5">B3/1000000</f>
         <v>1.824E-6</v>
       </c>
       <c r="D3">
@@ -2341,46 +2343,46 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f>F3-$P$2</f>
+        <f t="shared" si="0"/>
         <v>8.3049999999999999E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4915000000000001E-4</v>
       </c>
       <c r="L3">
-        <f>(((H3*E3)/1000)*(D3-$P$2))/(B3/(1000*1000))</f>
+        <f t="shared" ref="L2:L19" si="6">(((H3*E3)/1000)*(D3-$P$2))/(B3/(1000*1000))</f>
         <v>273.14967105263162</v>
       </c>
       <c r="M3">
-        <f>((D3-$P$2)*E3*H3)/(B3/1000)</f>
-        <v>273.14967105263162</v>
+        <f t="shared" ref="M3:M32" si="7">((D3)*(E3)*(H3/1000))/(B3/1000)</f>
+        <v>7.5904605263157898E-2</v>
       </c>
       <c r="N3">
-        <f>M3/10000</f>
-        <v>2.7314967105263162E-2</v>
+        <f t="shared" ref="N3:N17" si="8">M3/10</f>
+        <v>7.5904605263157898E-3</v>
       </c>
       <c r="O3">
         <v>2.7314967105263162E-2</v>
       </c>
       <c r="S3">
-        <f>(K3/B3)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.1365953947368421</v>
       </c>
       <c r="U3">
-        <f>(D3*E3*H3)/(B3/1000)</f>
+        <f t="shared" si="3"/>
         <v>75.904605263157904</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V32" si="2">U3/10000</f>
+        <f t="shared" ref="V3:V32" si="9">U3/10000</f>
         <v>7.5904605263157907E-3</v>
       </c>
       <c r="Z3">
-        <f>((D3-$X$2)*E3*H3)/(B3/1000)</f>
+        <f t="shared" si="4"/>
         <v>192.83511513157896</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA32" si="3">Z3/10000</f>
+        <f t="shared" ref="AA3:AA32" si="10">Z3/10000</f>
         <v>1.9283511513157894E-2</v>
       </c>
     </row>
@@ -2392,7 +2394,7 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9750000000000001E-6</v>
       </c>
       <c r="D4">
@@ -2414,46 +2416,46 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f>F4-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.20102500000000001</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0307500000000001E-4</v>
       </c>
       <c r="L4">
-        <f>(((H4*E4)/1000)*(D4-$P$2))/(B4/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>431.46835443037975</v>
       </c>
       <c r="M4">
-        <f>((D4-$P$2)*E4*H4)/(B4/1000)</f>
-        <v>431.46835443037975</v>
+        <f t="shared" si="7"/>
+        <v>0.24930379746835446</v>
       </c>
       <c r="N4">
-        <f>M4/10000</f>
-        <v>4.3146835443037976E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4930379746835447E-2</v>
       </c>
       <c r="O4">
         <v>4.3146835443037976E-2</v>
       </c>
       <c r="S4">
-        <f>(K4/B4)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.30535443037974686</v>
       </c>
       <c r="U4">
-        <f>(D4*E4*H4)/(B4/1000)</f>
+        <f t="shared" si="3"/>
         <v>249.30379746835445</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.4930379746835443E-2</v>
       </c>
       <c r="Z4">
-        <f>((D4-$X$2)*E4*H4)/(B4/1000)</f>
+        <f t="shared" si="4"/>
         <v>357.29430379746839</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.5729430379746838E-2</v>
       </c>
     </row>
@@ -2465,7 +2467,7 @@
         <v>1.8919999999999999</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.8919999999999998E-6</v>
       </c>
       <c r="D5">
@@ -2487,46 +2489,46 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f>F5-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.288775</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6632500000000004E-4</v>
       </c>
       <c r="L5">
-        <f>(((H5*E5)/1000)*(D5-$P$2))/(B5/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>589.53488372093034</v>
       </c>
       <c r="M5">
-        <f>((D5-$P$2)*E5*H5)/(B5/1000)</f>
-        <v>589.53488372093034</v>
+        <f t="shared" si="7"/>
+        <v>0.39937896405919671</v>
       </c>
       <c r="N5">
-        <f>M5/10000</f>
-        <v>5.8953488372093035E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.9937896405919673E-2</v>
       </c>
       <c r="O5">
         <v>5.8953488372093035E-2</v>
       </c>
       <c r="S5">
-        <f>(K5/B5)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.45788847780126851</v>
       </c>
       <c r="U5">
-        <f>(D5*E5*H5)/(B5/1000)</f>
+        <f t="shared" si="3"/>
         <v>399.37896405919668</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.9937896405919666E-2</v>
       </c>
       <c r="Z5">
-        <f>((D5-$X$2)*E5*H5)/(B5/1000)</f>
+        <f t="shared" si="4"/>
         <v>512.10689746300216</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>5.1210689746300213E-2</v>
       </c>
     </row>
@@ -2538,7 +2540,7 @@
         <v>1.7889999999999999</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.7889999999999999E-6</v>
       </c>
       <c r="D6">
@@ -2560,46 +2562,46 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <f>F6-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.16657500000000003</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9972500000000013E-4</v>
       </c>
       <c r="L6">
-        <f>(((H6*E6)/1000)*(D6-$P$2))/(B6/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>418.55785354946903</v>
       </c>
       <c r="M6">
-        <f>((D6-$P$2)*E6*H6)/(B6/1000)</f>
-        <v>418.55785354946897</v>
+        <f t="shared" si="7"/>
+        <v>0.21745388485187253</v>
       </c>
       <c r="N6">
-        <f>M6/10000</f>
-        <v>4.1855785354946898E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.1745388485187252E-2</v>
       </c>
       <c r="O6">
         <v>4.1855785354946898E-2</v>
       </c>
       <c r="S6">
-        <f>(K6/B6)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.27933202906651766</v>
       </c>
       <c r="U6">
-        <f>(D6*E6*H6)/(B6/1000)</f>
+        <f t="shared" si="3"/>
         <v>217.45388485187252</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1745388485187252E-2</v>
       </c>
       <c r="Z6">
-        <f>((D6-$X$2)*E6*H6)/(B6/1000)</f>
+        <f t="shared" si="4"/>
         <v>336.67202347680268</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.3667202347680267E-2</v>
       </c>
     </row>
@@ -2611,7 +2613,7 @@
         <v>1.988</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9879999999999999E-6</v>
       </c>
       <c r="D7">
@@ -2633,46 +2635,46 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <f>F7-$P$2</f>
+        <f t="shared" si="0"/>
         <v>2.2925000000000001E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8775000000000005E-5</v>
       </c>
       <c r="L7">
-        <f>(((H7*E7)/1000)*(D7-$P$2))/(B7/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>159.88430583501011</v>
       </c>
       <c r="M7">
-        <f>((D7-$P$2)*E7*H7)/(B7/1000)</f>
-        <v>159.88430583501008</v>
+        <f t="shared" si="7"/>
+        <v>-2.1089034205231387E-2</v>
       </c>
       <c r="N7">
-        <f>M7/10000</f>
-        <v>1.5988430583501009E-2</v>
+        <f t="shared" si="8"/>
+        <v>-2.1089034205231385E-3</v>
       </c>
       <c r="O7">
         <v>1.5988430583501009E-2</v>
       </c>
       <c r="S7">
-        <f>(K7/B7)*1000</f>
+        <f t="shared" si="2"/>
         <v>3.4595070422535214E-2</v>
       </c>
       <c r="U7">
-        <f>(D7*E7*H7)/(B7/1000)</f>
+        <f t="shared" si="3"/>
         <v>-21.089034205231385</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-2.1089034205231385E-3</v>
       </c>
       <c r="Z7">
-        <f>((D7-$X$2)*E7*H7)/(B7/1000)</f>
+        <f t="shared" si="4"/>
         <v>86.195296780684103</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8.6195296780684095E-3</v>
       </c>
     </row>
@@ -2684,7 +2686,7 @@
         <v>1.988</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9879999999999999E-6</v>
       </c>
       <c r="D8">
@@ -2706,46 +2708,46 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <f>F8-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.18973000000000001</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8816300000000005E-4</v>
       </c>
       <c r="L8">
-        <f>(((H8*E8)/1000)*(D8-$P$2))/(B8/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>416.69114688128775</v>
       </c>
       <c r="M8">
-        <f>((D8-$P$2)*E8*H8)/(B8/1000)</f>
-        <v>416.69114688128769</v>
+        <f t="shared" si="7"/>
+        <v>0.23831639839034202</v>
       </c>
       <c r="N8">
-        <f>M8/10000</f>
-        <v>4.1669114688128769E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3831639839034201E-2</v>
       </c>
       <c r="O8">
         <v>4.1669114688128769E-2</v>
       </c>
       <c r="S8">
-        <f>(K8/B8)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.29585663983903421</v>
       </c>
       <c r="U8">
-        <f>(D8*E8*H8)/(B8/1000)</f>
+        <f t="shared" si="3"/>
         <v>238.31639839034202</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.3831639839034201E-2</v>
       </c>
       <c r="Z8">
-        <f>((D8-$X$2)*E8*H8)/(B8/1000)</f>
+        <f t="shared" si="4"/>
         <v>344.06023641851107</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.4406023641851108E-2</v>
       </c>
     </row>
@@ -2757,7 +2759,7 @@
         <v>2.173</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1730000000000002E-6</v>
       </c>
       <c r="D9">
@@ -2779,11 +2781,11 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <f>F9-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.25562499999999999</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6687499999999998E-4</v>
       </c>
       <c r="L9">
@@ -2791,34 +2793,34 @@
         <v>467.53336401288539</v>
       </c>
       <c r="M9">
-        <f>((D9-$P$2)*E9*H9)/(B9/1000)</f>
-        <v>467.53336401288544</v>
+        <f t="shared" si="7"/>
+        <v>0.30196732627703637</v>
       </c>
       <c r="N9">
-        <f>M9/10000</f>
-        <v>4.6753336401288544E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.0196732627703636E-2</v>
       </c>
       <c r="O9">
         <v>4.6753336401288544E-2</v>
       </c>
       <c r="S9">
-        <f>(K9/B9)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.35291072250345146</v>
       </c>
       <c r="U9">
-        <f>(D9*E9*H9)/(B9/1000)</f>
+        <f t="shared" si="3"/>
         <v>301.96732627703631</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.0196732627703629E-2</v>
       </c>
       <c r="Z9">
-        <f>((D9-$X$2)*E9*H9)/(B9/1000)</f>
+        <f t="shared" si="4"/>
         <v>400.1179245283019</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.0011792452830187E-2</v>
       </c>
     </row>
@@ -2830,7 +2832,7 @@
         <v>2.0270000000000001</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0270000000000002E-6</v>
       </c>
       <c r="D10">
@@ -2852,46 +2854,46 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <f>F10-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.41877500000000001</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.256325E-3</v>
       </c>
       <c r="L10">
-        <f>(((H10*E10)/1000)*(D10-$P$2))/(B10/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>742.6739023186974</v>
       </c>
       <c r="M10">
-        <f>((D10-$P$2)*E10*H10)/(B10/1000)</f>
-        <v>742.6739023186974</v>
+        <f t="shared" si="7"/>
+        <v>0.5651825357671435</v>
       </c>
       <c r="N10">
-        <f>M10/10000</f>
-        <v>7.4267390231869734E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.6518253576714347E-2</v>
       </c>
       <c r="O10">
         <v>7.4267390231869734E-2</v>
       </c>
       <c r="S10">
-        <f>(K10/B10)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.61979526393685247</v>
       </c>
       <c r="U10">
-        <f>(D10*E10*H10)/(B10/1000)</f>
+        <f t="shared" si="3"/>
         <v>565.18253576714346</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.6518253576714347E-2</v>
       </c>
       <c r="Z10">
-        <f>((D10-$X$2)*E10*H10)/(B10/1000)</f>
+        <f t="shared" si="4"/>
         <v>670.402688702516</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.7040268870251607E-2</v>
       </c>
     </row>
@@ -2903,7 +2905,7 @@
         <v>2.0720000000000001</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0720000000000002E-6</v>
       </c>
       <c r="D11">
@@ -2925,24 +2927,24 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <f>F11-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.43892500000000001</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3167750000000001E-3</v>
       </c>
       <c r="L11">
-        <f>(((H11*E11)/1000)*(D11-$P$2))/(B11/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>755.71911196911196</v>
       </c>
       <c r="M11">
-        <f>((D11-$P$2)*E11*H11)/(B11/1000)</f>
-        <v>755.71911196911208</v>
+        <f t="shared" si="7"/>
+        <v>0.58208252895752899</v>
       </c>
       <c r="N11">
-        <f>M11/10000</f>
-        <v>7.5571911196911201E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.8208252895752897E-2</v>
       </c>
       <c r="O11">
         <v>7.5571911196911201E-2</v>
@@ -2951,23 +2953,23 @@
         <v>20</v>
       </c>
       <c r="S11">
-        <f>(K11/B11)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.63550916988416994</v>
       </c>
       <c r="U11">
-        <f>(D11*E11*H11)/(B11/1000)</f>
+        <f t="shared" si="3"/>
         <v>582.08252895752889</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.8208252895752891E-2</v>
       </c>
       <c r="Z11">
-        <f>((D11-$X$2)*E11*H11)/(B11/1000)</f>
+        <f t="shared" si="4"/>
         <v>685.01749517374515</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.8501749517374519E-2</v>
       </c>
     </row>
@@ -2979,7 +2981,7 @@
         <v>1.99</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.99E-6</v>
       </c>
       <c r="D12">
@@ -3001,46 +3003,46 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <f>F12-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.14545</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3635000000000001E-4</v>
       </c>
       <c r="L12">
-        <f>(((H12*E12)/1000)*(D12-$P$2))/(B12/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>344.4346733668342</v>
       </c>
       <c r="M12">
-        <f>((D12-$P$2)*E12*H12)/(B12/1000)</f>
-        <v>344.4346733668342</v>
+        <f t="shared" si="7"/>
+        <v>0.163643216080402</v>
       </c>
       <c r="N12">
-        <f>M12/10000</f>
-        <v>3.4443467336683423E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6364321608040199E-2</v>
       </c>
       <c r="O12">
         <v>3.4443467336683423E-2</v>
       </c>
       <c r="S12">
-        <f>(K12/B12)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.2192713567839196</v>
       </c>
       <c r="U12">
-        <f>(D12*E12*H12)/(B12/1000)</f>
+        <f t="shared" si="3"/>
         <v>163.643216080402</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.6364321608040199E-2</v>
       </c>
       <c r="Z12">
-        <f>((D12-$X$2)*E12*H12)/(B12/1000)</f>
+        <f t="shared" si="4"/>
         <v>270.81972361809051</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7081972361809051E-2</v>
       </c>
     </row>
@@ -3052,7 +3054,7 @@
         <v>1.923</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9230000000000001E-6</v>
       </c>
       <c r="D13">
@@ -3074,46 +3076,46 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <f>F13-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.37132499999999996</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1139749999999999E-3</v>
       </c>
       <c r="L13">
-        <f>(((H13*E13)/1000)*(D13-$P$2))/(B13/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>708.81435257410294</v>
       </c>
       <c r="M13">
-        <f>((D13-$P$2)*E13*H13)/(B13/1000)</f>
-        <v>708.81435257410305</v>
+        <f t="shared" si="7"/>
+        <v>0.5217238689547582</v>
       </c>
       <c r="N13">
-        <f>M13/10000</f>
-        <v>7.0881435257410308E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.217238689547582E-2</v>
       </c>
       <c r="O13">
         <v>7.0881435257410308E-2</v>
       </c>
       <c r="S13">
-        <f>(K13/B13)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.57929017160686425</v>
       </c>
       <c r="U13">
-        <f>(D13*E13*H13)/(B13/1000)</f>
+        <f t="shared" si="3"/>
         <v>521.72386895475825</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.2172386895475827E-2</v>
       </c>
       <c r="Z13">
-        <f>((D13-$X$2)*E13*H13)/(B13/1000)</f>
+        <f t="shared" si="4"/>
         <v>632.63455538221524</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.3263455538221519E-2</v>
       </c>
     </row>
@@ -3125,7 +3127,7 @@
         <v>1.833</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.8330000000000001E-6</v>
       </c>
       <c r="D14">
@@ -3147,46 +3149,46 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <f>F14-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.17237000000000002</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.171100000000001E-4</v>
       </c>
       <c r="L14">
-        <f>(((H14*E14)/1000)*(D14-$P$2))/(B14/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>408.936170212766</v>
       </c>
       <c r="M14">
-        <f>((D14-$P$2)*E14*H14)/(B14/1000)</f>
-        <v>408.93617021276606</v>
+        <f t="shared" si="7"/>
+        <v>0.22171849427168577</v>
       </c>
       <c r="N14">
-        <f>M14/10000</f>
-        <v>4.0893617021276606E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2171849427168579E-2</v>
       </c>
       <c r="O14">
         <v>4.0893617021276606E-2</v>
       </c>
       <c r="S14">
-        <f>(K14/B14)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.28211129296235682</v>
       </c>
       <c r="U14">
-        <f>(D14*E14*H14)/(B14/1000)</f>
+        <f t="shared" si="3"/>
         <v>221.71849427168578</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2171849427168579E-2</v>
       </c>
       <c r="Z14">
-        <f>((D14-$X$2)*E14*H14)/(B14/1000)</f>
+        <f t="shared" si="4"/>
         <v>332.70458265139121</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.3270458265139122E-2</v>
       </c>
     </row>
@@ -3198,7 +3200,7 @@
         <v>1.9730000000000001</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.973E-6</v>
       </c>
       <c r="D15">
@@ -3220,46 +3222,46 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <f>F15-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.24912499999999999</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4737499999999999E-4</v>
       </c>
       <c r="L15">
-        <f>(((H15*E15)/1000)*(D15-$P$2))/(B15/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>505.04308160162191</v>
       </c>
       <c r="M15">
-        <f>((D15-$P$2)*E15*H15)/(B15/1000)</f>
-        <v>505.04308160162196</v>
+        <f t="shared" si="7"/>
+        <v>0.32269386720729853</v>
       </c>
       <c r="N15">
-        <f>M15/10000</f>
-        <v>5.0504308160162194E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.2269386720729855E-2</v>
       </c>
       <c r="O15">
         <v>5.0504308160162194E-2</v>
       </c>
       <c r="S15">
-        <f>(K15/B15)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.37880131779016724</v>
       </c>
       <c r="U15">
-        <f>(D15*E15*H15)/(B15/1000)</f>
+        <f t="shared" si="3"/>
         <v>322.69386720729852</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.2269386720729855E-2</v>
       </c>
       <c r="Z15">
-        <f>((D15-$X$2)*E15*H15)/(B15/1000)</f>
+        <f t="shared" si="4"/>
         <v>430.79384186517996</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.3079384186517994E-2</v>
       </c>
     </row>
@@ -3271,7 +3273,7 @@
         <v>1E-13</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999998E-20</v>
       </c>
       <c r="D16">
@@ -3290,42 +3292,42 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <f>F16-$P$2</f>
+        <f t="shared" si="0"/>
         <v>-0.12299999999999998</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.6899999999999997E-4</v>
       </c>
       <c r="L16">
-        <f>(((H16*E16)/1000)*(D16-$P$2))/(B16/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>-1199250000000000</v>
       </c>
       <c r="M16">
-        <f>((D16-$P$2)*E16*H16)/(B16/1000)</f>
-        <v>-1199250000000000</v>
+        <f t="shared" si="7"/>
+        <v>-4797000000000.001</v>
       </c>
       <c r="N16">
-        <f>M16/10000</f>
-        <v>-119925000000</v>
+        <f t="shared" si="8"/>
+        <v>-479700000000.00012</v>
       </c>
       <c r="O16">
         <v>-119925000000</v>
       </c>
       <c r="S16">
-        <f>(K16/B16)*1000</f>
+        <f t="shared" si="2"/>
         <v>-3689999999999.9995</v>
       </c>
       <c r="U16">
-        <f>(D16*E16*H16)/(B16/1000)</f>
+        <f t="shared" si="3"/>
         <v>-4797000000000000</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-479700000000</v>
       </c>
       <c r="Z16">
-        <f>((D16-$X$2)*E16*H16)/(B16/1000)</f>
+        <f t="shared" si="4"/>
         <v>-2664187500000000</v>
       </c>
     </row>
@@ -3337,7 +3339,7 @@
         <v>1E-13</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999998E-20</v>
       </c>
       <c r="D17">
@@ -3356,42 +3358,42 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <f>F17-$P$2</f>
+        <f t="shared" si="0"/>
         <v>-4.3049999999999991E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2914999999999997E-4</v>
       </c>
       <c r="L17">
-        <f>(((H17*E17)/1000)*(D17-$P$2))/(B17/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>1199250000000000.3</v>
       </c>
       <c r="M17">
-        <f>((D17-$P$2)*E17*H17)/(B17/1000)</f>
-        <v>1199250000000000</v>
+        <f t="shared" si="7"/>
+        <v>-2398500000000.0005</v>
       </c>
       <c r="N17">
-        <f>M17/10000</f>
-        <v>119925000000</v>
+        <f t="shared" si="8"/>
+        <v>-239850000000.00006</v>
       </c>
       <c r="O17">
         <v>119925000000</v>
       </c>
       <c r="S17">
-        <f>(K17/B17)*1000</f>
+        <f t="shared" si="2"/>
         <v>-1291499999999.9995</v>
       </c>
       <c r="U17">
-        <f>(D17*E17*H17)/(B17/1000)</f>
+        <f t="shared" si="3"/>
         <v>-2398500000000000</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-239850000000</v>
       </c>
       <c r="Z17">
-        <f>((D17-$X$2)*E17*H17)/(B17/1000)</f>
+        <f t="shared" si="4"/>
         <v>-265687499999999.81</v>
       </c>
     </row>
@@ -3403,7 +3405,7 @@
         <v>2.5</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="D18">
@@ -3425,46 +3427,46 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <f>F18-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.86955000000000005</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6086500000000001E-3</v>
       </c>
       <c r="L18">
-        <f>(((H18*E18)/1000)*(D18-$P$2))/(B18/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>1143.0899999999999</v>
       </c>
       <c r="M18">
-        <f>((D18-$P$2)*E18*H18)/(B18/1000)</f>
-        <v>1143.0899999999999</v>
+        <f t="shared" si="7"/>
+        <v>0.99917999999999985</v>
       </c>
       <c r="N18">
-        <f>M18/10000</f>
-        <v>0.11430899999999999</v>
+        <f t="shared" ref="N2:N32" si="11">M18/10000</f>
+        <v>9.9917999999999988E-5</v>
       </c>
       <c r="O18">
         <v>0.11430899999999999</v>
       </c>
       <c r="S18">
-        <f>(K18/B18)*1000</f>
+        <f t="shared" si="2"/>
         <v>1.0434600000000001</v>
       </c>
       <c r="U18">
-        <f>(D18*E18*H18)/(B18/1000)</f>
+        <f t="shared" si="3"/>
         <v>999.17999999999972</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.9917999999999979E-2</v>
       </c>
       <c r="Z18">
-        <f>((D18-$X$2)*E18*H18)/(B18/1000)</f>
+        <f t="shared" si="4"/>
         <v>1084.4924999999998</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.10844924999999998</v>
       </c>
     </row>
@@ -3476,7 +3478,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.0999999999999997E-6</v>
       </c>
       <c r="D19">
@@ -3498,46 +3500,46 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <f>F19-$P$2</f>
+        <f t="shared" si="0"/>
         <v>0.48767499999999997</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.463025E-3</v>
       </c>
       <c r="L19">
-        <f>(((H19*E19)/1000)*(D19-$P$2))/(B19/(1000*1000))</f>
+        <f t="shared" si="6"/>
         <v>417.58536585365852</v>
       </c>
       <c r="M19">
-        <f>((D19-$P$2)*E19*H19)/(B19/1000)</f>
-        <v>417.58536585365857</v>
+        <f>((D19)*(E19)*(H19/1000))/(B19/1000)</f>
+        <v>0.32983536585365858</v>
       </c>
       <c r="N19">
-        <f>M19/10000</f>
-        <v>4.1758536585365859E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.2983536585365861E-5</v>
       </c>
       <c r="O19">
         <v>4.1758536585365859E-2</v>
       </c>
       <c r="S19">
-        <f>(K19/B19)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.35683536585365855</v>
       </c>
       <c r="U19">
-        <f>(D19*E19*H19)/(B19/1000)</f>
+        <f t="shared" si="3"/>
         <v>329.83536585365857</v>
       </c>
       <c r="V19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.2983536585365854E-2</v>
       </c>
       <c r="Z19">
-        <f>((D19-$X$2)*E19*H19)/(B19/1000)</f>
+        <f t="shared" si="4"/>
         <v>381.85518292682934</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.8185518292682935E-2</v>
       </c>
     </row>
@@ -3549,7 +3551,7 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="D20">
@@ -3571,11 +3573,11 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J32" si="4">F20-$Q$2</f>
+        <f t="shared" ref="J20:J32" si="12">F20-$Q$2</f>
         <v>6.3699999999999989E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5924999999999997E-5</v>
       </c>
       <c r="L20">
@@ -3583,34 +3585,34 @@
         <v>79.800000000000011</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M32" si="5">((D20-$Q$2)*E20*H20)/(B20/1000)</f>
-        <v>79.8</v>
+        <f t="shared" si="7"/>
+        <v>-2.4000000000000002E-3</v>
       </c>
       <c r="N20">
-        <f>M20/10000</f>
-        <v>7.9799999999999992E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.4000000000000003E-7</v>
       </c>
       <c r="O20">
         <v>7.9799999999999992E-3</v>
       </c>
       <c r="S20">
-        <f>(K20/B20)*1000</f>
+        <f t="shared" si="2"/>
         <v>3.1849999999999996E-2</v>
       </c>
       <c r="U20">
-        <f>(D20*E20*H20)/(B20/1000)</f>
+        <f t="shared" si="3"/>
         <v>-2.4000000000000004</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-2.4000000000000003E-4</v>
       </c>
       <c r="Z20">
-        <f>((D20-$X$2)*E20*H20)/(B20/1000)</f>
+        <f t="shared" si="4"/>
         <v>260.09999999999997</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6009999999999995E-2</v>
       </c>
     </row>
@@ -3622,7 +3624,7 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.1500000000000004E-7</v>
       </c>
       <c r="D21">
@@ -3644,46 +3646,46 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>-0.18611</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.6527500000000002E-4</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L32" si="6">(((H21*E21)/1000)*(D21-$Q$2))/(B21/(1000*1000))</f>
+        <f t="shared" ref="L21:L32" si="13">(((H21*E21)/1000)*(D21-$Q$2))/(B21/(1000*1000))</f>
         <v>-717.56097560975616</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
-        <v>-717.56097560975616</v>
+        <f t="shared" si="7"/>
+        <v>-0.78439024390243905</v>
       </c>
       <c r="N21">
-        <f>M21/10000</f>
-        <v>-7.1756097560975618E-2</v>
+        <f t="shared" si="11"/>
+        <v>-7.8439024390243906E-5</v>
       </c>
       <c r="O21">
         <v>-7.1756097560975618E-2</v>
       </c>
       <c r="S21">
-        <f>(K21/B21)*1000</f>
+        <f t="shared" si="2"/>
         <v>-0.75654471544715451</v>
       </c>
       <c r="U21">
-        <f>(D21*E21*H21)/(B21/1000)</f>
+        <f t="shared" si="3"/>
         <v>-784.39024390243901</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-7.8439024390243903E-2</v>
       </c>
       <c r="Z21">
-        <f>((D21-$X$2)*E21*H21)/(B21/1000)</f>
+        <f t="shared" si="4"/>
         <v>-570.97560975609747</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-5.7097560975609744E-2</v>
       </c>
     </row>
@@ -3695,7 +3697,7 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.85E-7</v>
       </c>
       <c r="D22">
@@ -3717,46 +3719,46 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.261E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1525000000000001E-5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>70.70063694267516</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
-        <v>70.700636942675146</v>
+        <f t="shared" si="7"/>
+        <v>1.8343949044585986E-2</v>
       </c>
       <c r="N22">
-        <f>M22/10000</f>
-        <v>7.0700636942675147E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.8343949044585986E-6</v>
       </c>
       <c r="O22">
         <v>7.0700636942675147E-3</v>
       </c>
       <c r="S22">
-        <f>(K22/B22)*1000</f>
+        <f t="shared" si="2"/>
         <v>4.015923566878981E-2</v>
       </c>
       <c r="U22">
-        <f>(D22*E22*H22)/(B22/1000)</f>
+        <f t="shared" si="3"/>
         <v>18.343949044585987</v>
       </c>
       <c r="V22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.8343949044585988E-3</v>
       </c>
       <c r="Z22">
-        <f>((D22-$X$2)*E22*H22)/(B22/1000)</f>
+        <f t="shared" si="4"/>
         <v>185.54140127388536</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.8554140127388534E-2</v>
       </c>
     </row>
@@ -3768,7 +3770,7 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.1699999999999998E-7</v>
       </c>
       <c r="D23">
@@ -3790,46 +3792,46 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>-0.34282999999999997</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.5707499999999989E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-1350.2431118314425</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
-        <v>-1350.2431118314423</v>
+        <f t="shared" si="7"/>
+        <v>-1.4168557536466775</v>
       </c>
       <c r="N23">
-        <f>M23/10000</f>
-        <v>-0.13502431118314423</v>
+        <f t="shared" si="11"/>
+        <v>-1.4168557536466776E-4</v>
       </c>
       <c r="O23">
         <v>-0.13502431118314423</v>
       </c>
       <c r="S23">
-        <f>(K23/B23)*1000</f>
+        <f t="shared" si="2"/>
         <v>-1.3891004862236627</v>
       </c>
       <c r="U23">
-        <f>(D23*E23*H23)/(B23/1000)</f>
+        <f t="shared" si="3"/>
         <v>-1416.8557536466774</v>
       </c>
       <c r="V23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.14168557536466775</v>
       </c>
       <c r="Z23">
-        <f>((D23-$X$2)*E23*H23)/(B23/1000)</f>
+        <f t="shared" si="4"/>
         <v>-1204.1329011345217</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-0.12041329011345217</v>
       </c>
     </row>
@@ -3841,7 +3843,7 @@
         <v>1.093</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.093E-6</v>
       </c>
       <c r="D24">
@@ -3863,46 +3865,46 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>-3.4749999999999996E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0424999999999999E-4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-53.07639524245198</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
-        <v>-53.076395242451973</v>
+        <f t="shared" si="7"/>
+        <v>-0.11418115279048492</v>
       </c>
       <c r="N24">
-        <f>M24/10000</f>
-        <v>-5.307639524245197E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.1418115279048492E-5</v>
       </c>
       <c r="O24">
         <v>-5.307639524245197E-3</v>
       </c>
       <c r="S24">
-        <f>(K24/B24)*1000</f>
+        <f t="shared" si="2"/>
         <v>-9.5379688929551676E-2</v>
       </c>
       <c r="U24">
-        <f>(D24*E24*H24)/(B24/1000)</f>
+        <f t="shared" si="3"/>
         <v>-114.18115279048493</v>
       </c>
       <c r="V24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-1.1418115279048492E-2</v>
       </c>
       <c r="Z24">
-        <f>((D24-$X$2)*E24*H24)/(B24/1000)</f>
+        <f t="shared" si="4"/>
         <v>80.952653247941456</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8.0952653247941455E-3</v>
       </c>
     </row>
@@ -3914,7 +3916,7 @@
         <v>1E-13</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999998E-20</v>
       </c>
       <c r="D25">
@@ -3933,42 +3935,42 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5.4999999999999927E-4</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6499999999999978E-6</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>427499999999999.88</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
-        <v>427499999999999.88</v>
+        <f>((D25)*(E25)*(H25/1000))/(B25/1000)</f>
+        <v>-189000000000.00003</v>
       </c>
       <c r="N25">
-        <f>M25/10000</f>
-        <v>42749999999.999985</v>
+        <f t="shared" si="11"/>
+        <v>-18900000.000000004</v>
       </c>
       <c r="O25">
         <v>42749999999.999985</v>
       </c>
       <c r="S25">
-        <f>(K25/B25)*1000</f>
+        <f t="shared" si="2"/>
         <v>16499999999.999977</v>
       </c>
       <c r="U25">
-        <f>(D25*E25*H25)/(B25/1000)</f>
+        <f t="shared" si="3"/>
         <v>-189000000000000</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-18900000000</v>
       </c>
       <c r="Z25">
-        <f>((D25-$X$2)*E25*H25)/(B25/1000)</f>
+        <f t="shared" si="4"/>
         <v>1779750000000000</v>
       </c>
     </row>
@@ -3980,7 +3982,7 @@
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-21</v>
       </c>
       <c r="D26">
@@ -3999,42 +4001,42 @@
         <v>2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>-2.7949999999999999E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.3850000000000005E-5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-4.2749999999999992E+16</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
-        <v>-4.2749999999999992E+16</v>
+        <f t="shared" si="7"/>
+        <v>-104399999999999.98</v>
       </c>
       <c r="N26">
-        <f>M26/10000</f>
-        <v>-4274999999999.999</v>
+        <f t="shared" si="11"/>
+        <v>-10439999999.999998</v>
       </c>
       <c r="O26">
         <v>-4274999999999.999</v>
       </c>
       <c r="S26">
-        <f>(K26/B26)*1000</f>
+        <f t="shared" si="2"/>
         <v>-83850000000000</v>
       </c>
       <c r="U26">
-        <f>(D26*E26*H26)/(B26/1000)</f>
+        <f t="shared" si="3"/>
         <v>-1.0439999999999998E+17</v>
       </c>
       <c r="V26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-10439999999999.998</v>
       </c>
       <c r="Z26">
-        <f>((D26-$X$2)*E26*H26)/(B26/1000)</f>
+        <f t="shared" si="4"/>
         <v>9.2475000000000016E+16</v>
       </c>
     </row>
@@ -4046,7 +4048,7 @@
         <v>2.1</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1000000000000002E-6</v>
       </c>
       <c r="D27">
@@ -4068,46 +4070,46 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.72084999999999999</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1625500000000001E-3</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1049.3571428571427</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
-        <v>1049.3571428571424</v>
+        <f t="shared" si="7"/>
+        <v>1.0199999999999998</v>
       </c>
       <c r="N27">
-        <f>M27/10000</f>
-        <v>0.10493571428571424</v>
+        <f t="shared" si="11"/>
+        <v>1.0199999999999999E-4</v>
       </c>
       <c r="O27">
         <v>0.10493571428571424</v>
       </c>
       <c r="S27">
-        <f>(K27/B27)*1000</f>
+        <f t="shared" si="2"/>
         <v>1.0297857142857143</v>
       </c>
       <c r="U27">
-        <f>(D27*E27*H27)/(B27/1000)</f>
+        <f t="shared" si="3"/>
         <v>1019.9999999999998</v>
       </c>
       <c r="V27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.10199999999999998</v>
       </c>
       <c r="Z27">
-        <f>((D27-$X$2)*E27*H27)/(B27/1000)</f>
+        <f t="shared" si="4"/>
         <v>1113.7499999999998</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.11137499999999997</v>
       </c>
     </row>
@@ -4119,7 +4121,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3E-6</v>
       </c>
       <c r="D28">
@@ -4141,24 +4143,24 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.27835000000000004</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3505000000000016E-4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>380.93478260869563</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
-        <v>380.93478260869563</v>
+        <f t="shared" si="7"/>
+        <v>0.35413043478260864</v>
       </c>
       <c r="N28">
-        <f>M28/10000</f>
-        <v>3.8093478260869562E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.5413043478260862E-5</v>
       </c>
       <c r="O28">
         <v>3.8093478260869562E-2</v>
@@ -4167,23 +4169,23 @@
         <v>31</v>
       </c>
       <c r="S28">
-        <f>(K28/B28)*1000</f>
+        <f t="shared" si="2"/>
         <v>0.36306521739130443</v>
       </c>
       <c r="U28">
-        <f>(D28*E28*H28)/(B28/1000)</f>
+        <f t="shared" si="3"/>
         <v>354.13043478260863</v>
       </c>
       <c r="V28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.541304347826086E-2</v>
       </c>
       <c r="Z28">
-        <f>((D28-$X$2)*E28*H28)/(B28/1000)</f>
+        <f t="shared" si="4"/>
         <v>439.7282608695653</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.3972826086956532E-2</v>
       </c>
     </row>
@@ -4195,7 +4197,7 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.058E-6</v>
       </c>
       <c r="D29">
@@ -4217,46 +4219,46 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.96625000000000005</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8987500000000003E-3</v>
       </c>
       <c r="L29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1428.4985422740524</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
-        <v>1428.4985422740524</v>
+        <f t="shared" si="7"/>
+        <v>1.3985422740524782</v>
       </c>
       <c r="N29">
-        <f>M29/10000</f>
-        <v>0.14284985422740523</v>
+        <f t="shared" si="11"/>
+        <v>1.3985422740524781E-4</v>
       </c>
       <c r="O29">
         <v>0.14284985422740523</v>
       </c>
       <c r="S29">
-        <f>(K29/B29)*1000</f>
+        <f t="shared" si="2"/>
         <v>1.4085276967930032</v>
       </c>
       <c r="U29">
-        <f>(D29*E29*H29)/(B29/1000)</f>
+        <f t="shared" si="3"/>
         <v>1398.542274052478</v>
       </c>
       <c r="V29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.13985422740524781</v>
       </c>
       <c r="Z29">
-        <f>((D29-$X$2)*E29*H29)/(B29/1000)</f>
+        <f t="shared" si="4"/>
         <v>1494.2055393586004</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.14942055393586004</v>
       </c>
     </row>
@@ -4268,7 +4270,7 @@
         <v>2.1560000000000001</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1560000000000002E-6</v>
       </c>
       <c r="D30">
@@ -4290,46 +4292,46 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.0499499999999999</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.14985E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1480.0324675324675</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
-        <v>1480.0324675324675</v>
+        <f t="shared" si="7"/>
+        <v>1.4514378478664192</v>
       </c>
       <c r="N30">
-        <f>M30/10000</f>
-        <v>0.14800324675324675</v>
+        <f t="shared" si="11"/>
+        <v>1.4514378478664192E-4</v>
       </c>
       <c r="O30">
         <v>0.14800324675324675</v>
       </c>
       <c r="S30">
-        <f>(K30/B30)*1000</f>
+        <f t="shared" si="2"/>
         <v>1.460969387755102</v>
       </c>
       <c r="U30">
-        <f>(D30*E30*H30)/(B30/1000)</f>
+        <f t="shared" si="3"/>
         <v>1451.4378478664191</v>
       </c>
       <c r="V30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.14514378478664192</v>
       </c>
       <c r="Z30">
-        <f>((D30-$X$2)*E30*H30)/(B30/1000)</f>
+        <f t="shared" si="4"/>
         <v>1542.7527829313544</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.15427527829313545</v>
       </c>
     </row>
@@ -4341,7 +4343,7 @@
         <v>2.1779999999999999</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1779999999999997E-6</v>
       </c>
       <c r="D31">
@@ -4363,46 +4365,46 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.1852499999999999</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5557499999999999E-3</v>
       </c>
       <c r="L31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1651.4462809917356</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
-        <v>1651.4462809917356</v>
+        <f t="shared" si="7"/>
+        <v>1.6231404958677687</v>
       </c>
       <c r="N31">
-        <f>M31/10000</f>
-        <v>0.16514462809917357</v>
+        <f t="shared" si="11"/>
+        <v>1.6231404958677687E-4</v>
       </c>
       <c r="O31">
         <v>0.16514462809917357</v>
       </c>
       <c r="S31">
-        <f>(K31/B31)*1000</f>
+        <f t="shared" si="2"/>
         <v>1.6325757575757576</v>
       </c>
       <c r="U31">
-        <f>(D31*E31*H31)/(B31/1000)</f>
+        <f t="shared" si="3"/>
         <v>1623.1404958677685</v>
       </c>
       <c r="V31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.16231404958677687</v>
       </c>
       <c r="Z31">
-        <f>((D31-$X$2)*E31*H31)/(B31/1000)</f>
+        <f t="shared" si="4"/>
         <v>1713.5330578512398</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.17135330578512398</v>
       </c>
     </row>
@@ -4414,7 +4416,7 @@
         <v>1.1220000000000001</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.122E-6</v>
       </c>
       <c r="D32">
@@ -4436,46 +4438,46 @@
         <v>2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55525000000000002</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6657500000000001E-3</v>
       </c>
       <c r="L32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1521.2566844919784</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
-        <v>1521.2566844919781</v>
+        <f t="shared" si="7"/>
+        <v>1.4663101604278073</v>
       </c>
       <c r="N32">
-        <f>M32/10000</f>
-        <v>0.15212566844919781</v>
+        <f t="shared" si="11"/>
+        <v>1.4663101604278072E-4</v>
       </c>
       <c r="O32">
         <v>0.15212566844919781</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32" si="7">(K32/B32)*1000</f>
+        <f t="shared" ref="S32" si="14">(K32/B32)*1000</f>
         <v>1.4846256684491976</v>
       </c>
       <c r="U32">
-        <f t="shared" ref="U32" si="8">(D32*E32*H32)/(B32/1000)</f>
+        <f t="shared" ref="U32" si="15">(D32*E32*H32)/(B32/1000)</f>
         <v>1466.3101604278072</v>
       </c>
       <c r="V32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.14663101604278073</v>
       </c>
       <c r="Z32">
-        <f>((D32-$X$2)*E32*H32)/(B32/1000)</f>
+        <f t="shared" si="4"/>
         <v>1641.7780748663101</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.16417780748663102</v>
       </c>
     </row>
